--- a/resistance_assay/20241206_Sink_Isolates_AR_22-8_Batch_2.xlsx
+++ b/resistance_assay/20241206_Sink_Isolates_AR_22-8_Batch_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecan\Documents\Zhengqing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iridashyti/Documents/Duke_you_lab/sink_microbe_isolates/resistance_assay/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F84086-F851-8B4E-8036-34C2276F3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20660" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch 2-1" sheetId="2" r:id="rId1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -120,12 +121,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -419,12 +420,18 @@
   </si>
   <si>
     <t>22-8-p</t>
+  </si>
+  <si>
+    <t>LB+STREP</t>
+  </si>
+  <si>
+    <t>Lb+strp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,7 +459,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -539,13 +546,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -822,16 +829,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -850,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -858,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -866,7 +873,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -874,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -882,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -890,7 +897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -898,12 +905,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -923,7 +930,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -943,7 +950,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -963,12 +970,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -976,7 +983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -987,7 +994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -998,7 +1005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1025,12 +1032,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1071,7 +1078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -1159,7 +1166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1247,7 +1254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -1335,7 +1342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -1411,16 +1418,19 @@
         <v>4.7200001776218414E-2</v>
       </c>
       <c r="K37">
-        <v>0.87059998512268066</v>
+        <v>0.870599985122681</v>
       </c>
       <c r="L37">
-        <v>0.79189997911453247</v>
+        <v>0.79189997911453203</v>
       </c>
       <c r="M37">
         <v>0.88029998540878296</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1465,16 +1475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1519,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1525,7 +1535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1541,12 +1551,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1566,7 +1576,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1586,7 +1596,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1606,12 +1616,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1649,7 +1659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1668,12 +1678,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1758,7 +1768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1890,7 +1900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1934,7 +1944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>1.2197999954223633</v>
       </c>
       <c r="E35">
-        <v>1.2416000366210937</v>
+        <v>1.2416000366210938</v>
       </c>
       <c r="F35">
         <v>1.243399977684021</v>
@@ -1978,7 +1988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -2057,13 +2067,16 @@
         <v>1.0341000556945801</v>
       </c>
       <c r="L37">
-        <v>0.36179998517036438</v>
+        <v>0.36179998517036399</v>
       </c>
       <c r="M37">
-        <v>0.92839998006820679</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.92839998006820701</v>
+      </c>
+      <c r="N37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2093,18 +2106,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B30:M37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="4.3299999999999998E-2"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0.433"/>
         <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FF92D050"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="4.3299999999999998E-2"/>
-        <cfvo type="num" val="1"/>
         <color rgb="FFFF7128"/>
         <color rgb="FF92D050"/>
       </colorScale>
